--- a/results/optimization_results/fon/fon_results.xlsx
+++ b/results/optimization_results/fon/fon_results.xlsx
@@ -2699,7 +2699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,6 +2937,206 @@
       </c>
       <c r="F11" t="n">
         <v>2.016240745662421</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>628</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7238711426878679</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.30414857083974</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.8927336325794407</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.648687535547951</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>638</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.302221338218278</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1479775544684723</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.4747336934124086</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.979241101441685</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>632</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.6761042507329533</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.077394989064373</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.9990562842355675</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.023872590304876</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.258547615003693</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>638</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.094852883182382</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.043444337938924</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.4220136303950404</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.940611963135439</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>614</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.065258100229737</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.691024642156352</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.9482972362502432</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.744659194566054</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>615</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1235064299036601</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.85896629303264</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5763369310095678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.399892543246757</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>621</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7719757117229418</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1001311950360371</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.6959169693034615</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.887677251564717</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>622</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.02567476635498211</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.600340218309853</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.66577904615033</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.525892064905803</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>622</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.130787719431383</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.4796247492573122</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.4207786728043932</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.015247883023973</v>
       </c>
     </row>
   </sheetData>
